--- a/contribute/重构分工.xlsx
+++ b/contribute/重构分工.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+  <si>
+    <t>进度</t>
+  </si>
   <si>
     <t>快速入门调整</t>
   </si>
@@ -31,6 +34,9 @@
     <t>海量</t>
   </si>
   <si>
+    <t>已完成企业版中文</t>
+  </si>
+  <si>
     <t>安装指南调整</t>
   </si>
   <si>
@@ -48,7 +54,10 @@
 修改index.md文件。</t>
   </si>
   <si>
-    <t>恩墨</t>
+    <t>恩墨-郭欢</t>
+  </si>
+  <si>
+    <t>已完成全部版本</t>
   </si>
   <si>
     <t>数据库管理</t>
@@ -61,6 +70,9 @@
     <t>李杨</t>
   </si>
   <si>
+    <t>未开始</t>
+  </si>
+  <si>
     <t>数据库运维</t>
   </si>
   <si>
@@ -68,6 +80,9 @@
 修改index.md文件。</t>
   </si>
   <si>
+    <t>未开始，下周四可以完成</t>
+  </si>
+  <si>
     <t>应用开发</t>
   </si>
   <si>
@@ -90,6 +105,12 @@
   <si>
     <t>新建一个PerformanceTuning的文件夹，把子章节的MD文件迁移至新的文件夹下，平铺。
 修改index.md文件。</t>
+  </si>
+  <si>
+    <t>恩墨-张翠娉</t>
+  </si>
+  <si>
+    <t>已完成企业版和lite版中文</t>
   </si>
   <si>
     <t>工具命令参考</t>
@@ -151,7 +172,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -167,13 +188,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -628,48 +642,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -679,97 +696,94 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1130,227 +1144,278 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="1" max="1" width="33.5916666666667" customWidth="1"/>
     <col min="2" max="2" width="79.125" customWidth="1"/>
-    <col min="4" max="4" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="13.0416666666667" customWidth="1"/>
+    <col min="5" max="5" width="25.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="27" spans="1:4">
+    <row r="1" spans="5:5">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" ht="27" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="8" ht="27" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" ht="27" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" ht="27" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" ht="27" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" ht="27" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" ht="27" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="27" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" ht="27" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="E14" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" ht="27" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" ht="27" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" ht="27" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" ht="27" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" ht="27" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" ht="27" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" ht="27" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" ht="27" spans="1:4">
+    </row>
+    <row r="15" ht="27" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" ht="27" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" ht="27" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/contribute/重构分工.xlsx
+++ b/contribute/重构分工.xlsx
@@ -16,9 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
-  <si>
-    <t>进度</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="46">
+  <si>
+    <t>企业版中文</t>
+  </si>
+  <si>
+    <t>企业版英文</t>
+  </si>
+  <si>
+    <t>轻量版中文</t>
+  </si>
+  <si>
+    <t>轻量版英文</t>
   </si>
   <si>
     <t>快速入门调整</t>
@@ -34,7 +43,7 @@
     <t>海量</t>
   </si>
   <si>
-    <t>已完成企业版中文</t>
+    <t>完成</t>
   </si>
   <si>
     <t>安装指南调整</t>
@@ -57,7 +66,7 @@
     <t>恩墨-郭欢</t>
   </si>
   <si>
-    <t>已完成全部版本</t>
+    <t>index未更新</t>
   </si>
   <si>
     <t>数据库管理</t>
@@ -70,7 +79,7 @@
     <t>李杨</t>
   </si>
   <si>
-    <t>未开始</t>
+    <t>李童</t>
   </si>
   <si>
     <t>数据库运维</t>
@@ -80,9 +89,6 @@
 修改index.md文件。</t>
   </si>
   <si>
-    <t>未开始，下周四可以完成</t>
-  </si>
-  <si>
     <t>应用开发</t>
   </si>
   <si>
@@ -110,9 +116,6 @@
     <t>恩墨-张翠娉</t>
   </si>
   <si>
-    <t>已完成企业版和lite版中文</t>
-  </si>
-  <si>
     <t>工具命令参考</t>
   </si>
   <si>
@@ -127,6 +130,9 @@
 修改index.md文件。</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>dolphin Extension</t>
   </si>
   <si>
@@ -153,6 +159,9 @@
   <si>
     <t>新建一个DataBaseReference文件夹，把子章节的MD文件迁移至新的文件夹下，平铺。
 修改index.md文件。</t>
+  </si>
+  <si>
+    <t>张翠娉</t>
   </si>
   <si>
     <t>附录</t>
@@ -1144,278 +1153,414 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="33.5916666666667" customWidth="1"/>
-    <col min="2" max="2" width="79.125" customWidth="1"/>
+    <col min="1" max="1" width="29.0166666666667" customWidth="1"/>
+    <col min="2" max="2" width="73.5833333333333" customWidth="1"/>
     <col min="4" max="4" width="13.0416666666667" customWidth="1"/>
-    <col min="5" max="5" width="25.5416666666667" customWidth="1"/>
+    <col min="5" max="5" width="10.5333333333333" customWidth="1"/>
+    <col min="6" max="6" width="11.3" customWidth="1"/>
+    <col min="7" max="8" width="11.0833333333333" customWidth="1"/>
+    <col min="9" max="9" width="13.3666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:5">
+    <row r="1" spans="5:8">
       <c r="E1" t="s">
         <v>0</v>
       </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" ht="27" spans="1:5">
+    <row r="2" ht="27" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" ht="27" spans="1:5">
+    <row r="3" ht="40.5" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    <row r="6" ht="27" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
+    <row r="7" ht="27" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
+    <row r="9" ht="40.5" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
-        <v>19</v>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="7" ht="27" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
+    <row r="10" ht="27" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="8" ht="27" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
+    <row r="11" ht="27" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="9" ht="27" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="12" ht="27" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" ht="27" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" ht="27" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="13" ht="27" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" ht="27" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="15" ht="27" spans="1:5">
+    <row r="15" ht="27" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="16" ht="27" spans="1:5">
+    <row r="16" ht="27" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
